--- a/cbs1.0/20220908-海运部主单项目/DB.xlsx
+++ b/cbs1.0/20220908-海运部主单项目/DB.xlsx
@@ -16,9 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">select </t>
     </r>
     <r>
@@ -109,7 +115,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FFFFC66D"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -118,7 +124,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FFCC7832"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -127,7 +133,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -136,7 +142,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FFCC7832"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -145,7 +151,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FF9876AA"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -154,7 +160,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FFCC7832"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -163,7 +169,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -172,7 +178,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FF6A8759"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -181,7 +187,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FF6A8759"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -190,7 +196,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FF6A8759"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -199,7 +205,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FFCC7832"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -208,7 +214,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FF6A8759"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -217,7 +223,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FF6A8759"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -226,7 +232,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FF6A8759"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -235,7 +241,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -244,7 +250,16 @@
     </r>
   </si>
   <si>
-    <r>
+    <t>分单一览废除</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">select </t>
     </r>
     <r>
@@ -336,6 +351,24 @@
         <charset val="134"/>
       </rPr>
       <t>'ShippingMHblListPage:view'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'ShippingHblListPage:view'</t>
     </r>
     <r>
       <rPr>
@@ -358,7 +391,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,8 +406,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FFCC7832"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -549,6 +588,36 @@
     </font>
     <font>
       <sz val="9.8"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC66D"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9876AA"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF6A8759"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -859,51 +928,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -913,102 +979,111 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,19 +1194,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1144,8 +1219,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="2057400"/>
-          <a:ext cx="12106275" cy="895350"/>
+          <a:off x="704850" y="2162175"/>
+          <a:ext cx="12592050" cy="1171575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1160,20 +1235,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="6" name="图片 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1186,8 +1261,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="3600450"/>
-          <a:ext cx="12544425" cy="962025"/>
+          <a:off x="666750" y="3829050"/>
+          <a:ext cx="12334875" cy="1295400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1490,27 +1565,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B5:B20"/>
+  <dimension ref="B5:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="2:11">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="K11" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
-        <v>2</v>
+    <row r="21" spans="2:2">
+      <c r="B21" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/cbs1.0/20220908-海运部主单项目/DB.xlsx
+++ b/cbs1.0/20220908-海运部主单项目/DB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <r>
       <rPr>
@@ -115,7 +115,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="9.8"/>
         <color rgb="FFFFC66D"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -124,7 +124,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="9.8"/>
         <color rgb="FFCC7832"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -133,7 +133,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="9.8"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -142,7 +142,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="9.8"/>
         <color rgb="FFCC7832"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -151,7 +151,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="9.8"/>
         <color rgb="FF9876AA"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -160,7 +160,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="9.8"/>
         <color rgb="FFCC7832"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -169,7 +169,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="9.8"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -178,7 +178,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="9.8"/>
         <color rgb="FF6A8759"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -187,7 +187,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="9.8"/>
         <color rgb="FF6A8759"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -196,7 +196,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="9.8"/>
         <color rgb="FF6A8759"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -205,7 +205,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="9.8"/>
         <color rgb="FFCC7832"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -214,7 +214,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="9.8"/>
         <color rgb="FF6A8759"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -223,7 +223,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="9.8"/>
         <color rgb="FF6A8759"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -232,7 +232,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="9.8"/>
         <color rgb="FF6A8759"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -241,7 +241,43 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮件方案列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
@@ -250,9 +286,18 @@
     </r>
   </si>
   <si>
-    <t>分单一览废除</t>
-  </si>
-  <si>
+    <r>
+      <t xml:space="preserve">select </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFFFC66D"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
     <r>
       <rPr>
         <sz val="9.8"/>
@@ -260,16 +305,16 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">select </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FFFFC66D"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dl_base.base_auth_resource bar </t>
     </r>
     <r>
       <rPr>
@@ -278,7 +323,25 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">from </t>
+      <t xml:space="preserve">where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">permission </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
     </r>
     <r>
       <rPr>
@@ -287,7 +350,16 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">dl_base.base_auth_resource bar </t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'ShippingOrderListPage:view'</t>
     </r>
     <r>
       <rPr>
@@ -296,16 +368,16 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">where </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">permission </t>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'ShippingMHblListPage:view'</t>
     </r>
     <r>
       <rPr>
@@ -314,16 +386,7 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -332,43 +395,7 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t>'ShippingOrderListPage:view'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'ShippingMHblListPage:view'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'ShippingHblListPage:view'</t>
+      <t>'ShippingMailSolutionListPage:view'</t>
     </r>
     <r>
       <rPr>
@@ -391,7 +418,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,12 +433,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFCC7832"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -588,36 +609,6 @@
     </font>
     <font>
       <sz val="9.8"/>
-      <color rgb="FF6A8759"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFC66D"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF9876AA"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF6A8759"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF6A8759"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -931,10 +922,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,33 +934,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -979,97 +973,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,10 +1071,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1179,90 +1170,6 @@
         <a:xfrm>
           <a:off x="676275" y="952500"/>
           <a:ext cx="12239625" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="704850" y="2162175"/>
-          <a:ext cx="12592050" cy="1171575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="666750" y="3829050"/>
-          <a:ext cx="12334875" cy="1295400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1568,7 +1475,7 @@
   <dimension ref="B5:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1582,13 +1489,11 @@
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="K11" s="3"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
-        <v>3</v>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/cbs1.0/20220908-海运部主单项目/DB.xlsx
+++ b/cbs1.0/20220908-海运部主单项目/DB.xlsx
@@ -111,6 +111,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">select </t>
     </r>
     <r>
@@ -287,6 +293,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">select </t>
     </r>
     <r>
@@ -1064,11 +1076,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1170,6 +1179,48 @@
         <a:xfrm>
           <a:off x="676275" y="952500"/>
           <a:ext cx="12239625" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="4114800"/>
+          <a:ext cx="6172200" cy="1514475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1475,7 +1526,7 @@
   <dimension ref="B5:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1486,13 +1537,13 @@
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/cbs1.0/20220908-海运部主单项目/DB.xlsx
+++ b/cbs1.0/20220908-海运部主单项目/DB.xlsx
@@ -111,22 +111,34 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">select </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFFFC66D"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
       <rPr>
         <sz val="9.8"/>
         <color rgb="FFCC7832"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">select </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FFFFC66D"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dl_base.base_menu bm </t>
     </r>
     <r>
       <rPr>
@@ -135,7 +147,25 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">from </t>
+      <t xml:space="preserve">where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">label </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
     </r>
     <r>
       <rPr>
@@ -144,7 +174,34 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">dl_base.base_menu bm </t>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>托单列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">' </t>
     </r>
     <r>
       <rPr>
@@ -153,16 +210,34 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">where </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">label </t>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主分单列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
     </r>
     <r>
       <rPr>
@@ -171,16 +246,7 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">( </t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -198,16 +264,16 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>托单列表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">' </t>
+      <t>邮件方案列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
     </r>
     <r>
       <rPr>
@@ -234,43 +300,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>主分单列表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮件方案列表</t>
+      <t>海运普货装箱</t>
     </r>
     <r>
       <rPr>
@@ -293,22 +323,34 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">select </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFFFC66D"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
       <rPr>
         <sz val="9.8"/>
         <color rgb="FFCC7832"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">select </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FFFFC66D"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dl_base.base_auth_resource bar </t>
     </r>
     <r>
       <rPr>
@@ -317,7 +359,25 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">from </t>
+      <t xml:space="preserve">where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">permission </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
     </r>
     <r>
       <rPr>
@@ -326,7 +386,16 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">dl_base.base_auth_resource bar </t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'ShippingOrderListPage:view'</t>
     </r>
     <r>
       <rPr>
@@ -335,16 +404,16 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">where </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">permission </t>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'ShippingMHblListPage:view'</t>
     </r>
     <r>
       <rPr>
@@ -353,25 +422,16 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'ShippingOrderListPage:view'</t>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'ShippingMailSolutionListPage:view'</t>
     </r>
     <r>
       <rPr>
@@ -389,25 +449,7 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t>'ShippingMHblListPage:view'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'ShippingMailSolutionListPage:view'</t>
+      <t>'ShippingPackingListPage:view'</t>
     </r>
     <r>
       <rPr>
@@ -1076,8 +1118,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1526,7 +1571,7 @@
   <dimension ref="B5:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1537,13 +1582,13 @@
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
     </row>
